--- a/实验数据/RLC谐振数据.xlsx
+++ b/实验数据/RLC谐振数据.xlsx
@@ -1,31 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarK\Desktop\CirExp\实验数据\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>电路总电流I(mA)</t>
+  </si>
+  <si>
+    <t>电阻电压U1(V)</t>
+  </si>
+  <si>
+    <t>电容电压U2(V)</t>
+  </si>
+  <si>
+    <t>电感电压U3(V)</t>
+  </si>
+  <si>
+    <r>
+      <t>电源频率(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hz)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源电压</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,17 +115,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -66,6 +140,2792 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>电路总电流随电源频率变化的关系</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.61</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8099999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-95A0-42D9-A934-FD5F290ED74E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1170322207"/>
+        <c:axId val="1170320127"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1170322207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>电源频率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>f/kHz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.77883902012248463"/>
+              <c:y val="0.87245370370370356"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1170320127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1170320127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>电路总电流</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>I/mA</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.16912438028579765"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1170322207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>电气元件电压随电源频率变化的关系</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13552537182852142"/>
+          <c:y val="0.18039370078740158"/>
+          <c:w val="0.61041907261592299"/>
+          <c:h val="0.64021617089530469"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>电阻电压U1(V)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A15-4B27-BD00-376537117AC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>电容电压U2(V)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3A15-4B27-BD00-376537117AC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>电感电压U3(V)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3A15-4B27-BD00-376537117AC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>电源电压</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3A15-4B27-BD00-376537117AC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1175083215"/>
+        <c:axId val="1175083631"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1175083215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>电源频率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>f/kHz</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.77721391076115498"/>
+              <c:y val="0.87245370370370356"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1175083631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1175083631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>电阻电压</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>U1/V</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.17175160396617087"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1175083215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -111,7 +2971,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -146,7 +3006,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -321,22 +3181,369 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="6" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>3.24</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.69</v>
+      </c>
+      <c r="D2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E2">
+        <v>1.07</v>
+      </c>
+      <c r="F2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1.41</v>
+      </c>
+      <c r="D3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3.06</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D4">
+        <v>0.22</v>
+      </c>
+      <c r="E4">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2.94</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>3.13</v>
+      </c>
+      <c r="D5">
+        <v>0.31</v>
+      </c>
+      <c r="E5">
+        <v>1.23</v>
+      </c>
+      <c r="F5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2.74</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4.12</v>
+      </c>
+      <c r="D6">
+        <v>0.41</v>
+      </c>
+      <c r="E6">
+        <v>1.3</v>
+      </c>
+      <c r="F6">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>1.32</v>
+      </c>
+      <c r="F7">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>5.55</v>
+      </c>
+      <c r="D8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E8">
+        <v>1.25</v>
+      </c>
+      <c r="F8">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="B9">
+        <v>7.2</v>
+      </c>
+      <c r="C9">
+        <v>5.61</v>
+      </c>
+      <c r="D9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E9">
+        <v>1.23</v>
+      </c>
+      <c r="F9">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="B10">
+        <v>7.4</v>
+      </c>
+      <c r="C10">
+        <v>5.64</v>
+      </c>
+      <c r="D10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E10">
+        <v>1.2</v>
+      </c>
+      <c r="F10">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="B11">
+        <v>7.5</v>
+      </c>
+      <c r="C11">
+        <v>5.64</v>
+      </c>
+      <c r="D11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E11">
+        <v>1.19</v>
+      </c>
+      <c r="F11">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="B12">
+        <v>7.7</v>
+      </c>
+      <c r="C12">
+        <v>5.64</v>
+      </c>
+      <c r="D12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E12">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="B13">
+        <v>7.9</v>
+      </c>
+      <c r="C13">
+        <v>5.61</v>
+      </c>
+      <c r="D13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E13">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F13">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>5.6</v>
+      </c>
+      <c r="D14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E14">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F14">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="B15">
+        <v>8.5</v>
+      </c>
+      <c r="C15">
+        <v>5.46</v>
+      </c>
+      <c r="D15">
+        <v>0.54</v>
+      </c>
+      <c r="E15">
+        <v>1.02</v>
+      </c>
+      <c r="F15">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>5.27</v>
+      </c>
+      <c r="D16">
+        <v>0.52</v>
+      </c>
+      <c r="E16">
+        <v>0.93</v>
+      </c>
+      <c r="F16">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="D17">
+        <v>0.47</v>
+      </c>
+      <c r="E17">
+        <v>0.76</v>
+      </c>
+      <c r="F17">
+        <v>1.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>